--- a/rl.xlsx
+++ b/rl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KJ\PycharmProjects\UniversalBridge3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9299D99-7FE6-4136-B5A0-C38C34136493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8D0E8-493F-4CAD-8609-1EB491D46632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="596" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="720" windowWidth="18180" windowHeight="13185" tabRatio="596" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commentary" sheetId="11" r:id="rId1"/>
@@ -4633,23 +4633,60 @@
     <xf numFmtId="190" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="191" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="192" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="193" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="194" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4669,61 +4706,24 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="192" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="193" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="194" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 2" xfId="1" builtinId="17" customBuiltin="1"/>
@@ -18964,8 +18964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14D0CB3-1C5E-4660-8289-0E517D06346F}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21946,10 +21946,10 @@
   <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA48" sqref="AA48"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25677,14 +25677,14 @@
         <f t="shared" si="15"/>
         <v>2.0310087854330829</v>
       </c>
-      <c r="AE32" s="469">
+      <c r="AE32" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF32" s="469">
+      <c r="AF32" s="445">
         <f>-AE32*P32/S32^2</f>
         <v>2.4993143917209739</v>
       </c>
-      <c r="AG32" s="470">
+      <c r="AG32" s="446">
         <f>ABS(Q32/P32*AF32)</f>
         <v>5.1987185551804602</v>
       </c>
@@ -25696,7 +25696,7 @@
         <f t="shared" si="19"/>
         <v>53</v>
       </c>
-      <c r="AJ32" s="475" t="s">
+      <c r="AJ32" s="451" t="s">
         <v>534</v>
       </c>
     </row>
@@ -25797,14 +25797,14 @@
         <f t="shared" si="15"/>
         <v>2.1089403575630592</v>
       </c>
-      <c r="AE33" s="469">
+      <c r="AE33" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF33" s="469">
+      <c r="AF33" s="445">
         <f t="shared" ref="AF33:AF34" si="20">-AE33*P33/S33^2</f>
         <v>-0.49986247852290189</v>
       </c>
-      <c r="AG33" s="470">
+      <c r="AG33" s="446">
         <f t="shared" ref="AG33:AG34" si="21">ABS(Q33/P33*AF33)</f>
         <v>3.8381931786631895</v>
       </c>
@@ -25816,7 +25816,7 @@
         <f t="shared" si="19"/>
         <v>400</v>
       </c>
-      <c r="AJ33" s="475" t="s">
+      <c r="AJ33" s="451" t="s">
         <v>535</v>
       </c>
     </row>
@@ -25917,14 +25917,14 @@
         <f t="shared" si="15"/>
         <v>2.1281791091192011</v>
       </c>
-      <c r="AE34" s="469">
+      <c r="AE34" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF34" s="469">
+      <c r="AF34" s="445">
         <f t="shared" si="20"/>
         <v>-0.59984013195233599</v>
       </c>
-      <c r="AG34" s="470">
+      <c r="AG34" s="446">
         <f t="shared" si="21"/>
         <v>3.7897942783917737</v>
       </c>
@@ -26034,14 +26034,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="469">
+      <c r="AE35" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF35" s="469" t="e">
+      <c r="AF35" s="445" t="e">
         <f t="shared" ref="AF35:AF46" si="22">-AE35*P35/S35^2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="470" t="e">
+      <c r="AG35" s="446" t="e">
         <f t="shared" ref="AG35:AG46" si="23">ABS(Q35/P35*AF35)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26151,14 +26151,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="469">
+      <c r="AE36" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF36" s="469" t="e">
+      <c r="AF36" s="445" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="470" t="e">
+      <c r="AG36" s="446" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -26268,14 +26268,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="469">
+      <c r="AE37" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF37" s="469" t="e">
+      <c r="AF37" s="445" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="470" t="e">
+      <c r="AG37" s="446" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -26385,14 +26385,14 @@
         <f t="shared" si="15"/>
         <v>2.0303604014925232</v>
       </c>
-      <c r="AE38" s="469">
+      <c r="AE38" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF38" s="469">
+      <c r="AF38" s="445">
         <f t="shared" si="22"/>
         <v>0.76984271142981431</v>
       </c>
-      <c r="AG38" s="470">
+      <c r="AG38" s="446">
         <f t="shared" si="23"/>
         <v>0.51989980593834306</v>
       </c>
@@ -26502,14 +26502,14 @@
         <f t="shared" si="15"/>
         <v>2.1058142482360469</v>
       </c>
-      <c r="AE39" s="469">
+      <c r="AE39" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF39" s="469">
+      <c r="AF39" s="445">
         <f t="shared" si="22"/>
         <v>0.62987181317999241</v>
       </c>
-      <c r="AG39" s="470">
+      <c r="AG39" s="446">
         <f t="shared" si="23"/>
         <v>0.38383359918177745</v>
       </c>
@@ -26619,14 +26619,14 @@
         <f t="shared" si="15"/>
         <v>2.1244770666502371</v>
       </c>
-      <c r="AE40" s="469">
+      <c r="AE40" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF40" s="469">
+      <c r="AF40" s="445">
         <f t="shared" si="22"/>
         <v>0.60987978529412357</v>
       </c>
-      <c r="AG40" s="470">
+      <c r="AG40" s="446">
         <f t="shared" si="23"/>
         <v>0.37899273965573016</v>
       </c>
@@ -26736,14 +26736,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="469">
+      <c r="AE41" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF41" s="469" t="e">
+      <c r="AF41" s="445" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG41" s="470" t="e">
+      <c r="AG41" s="446" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -26853,14 +26853,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="469">
+      <c r="AE42" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF42" s="469" t="e">
+      <c r="AF42" s="445" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG42" s="470" t="e">
+      <c r="AG42" s="446" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -26970,14 +26970,14 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="469">
+      <c r="AE43" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF43" s="469" t="e">
+      <c r="AF43" s="445" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="470" t="e">
+      <c r="AG43" s="446" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -27087,14 +27087,14 @@
         <f t="shared" si="15"/>
         <v>2.0305774373443271</v>
       </c>
-      <c r="AE44" s="469">
+      <c r="AE44" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF44" s="469">
+      <c r="AF44" s="445">
         <f t="shared" si="22"/>
         <v>0.80966907024229162</v>
       </c>
-      <c r="AG44" s="470">
+      <c r="AG44" s="446">
         <f t="shared" si="23"/>
         <v>5.1982585558068756E-2</v>
       </c>
@@ -27204,14 +27204,14 @@
         <f t="shared" si="15"/>
         <v>2.1063515240015169</v>
       </c>
-      <c r="AE45" s="469">
+      <c r="AE45" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF45" s="469">
+      <c r="AF45" s="445">
         <f t="shared" si="22"/>
         <v>0.77668767730870092</v>
       </c>
-      <c r="AG45" s="470">
+      <c r="AG45" s="446">
         <f t="shared" si="23"/>
         <v>3.8380565759785143E-2</v>
       </c>
@@ -27321,14 +27321,14 @@
         <f t="shared" si="15"/>
         <v>2.124479508846326</v>
       </c>
-      <c r="AE46" s="469">
+      <c r="AE46" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF46" s="469">
+      <c r="AF46" s="445">
         <f t="shared" si="22"/>
         <v>0.76770864042514209</v>
       </c>
-      <c r="AG46" s="470">
+      <c r="AG46" s="446">
         <f t="shared" si="23"/>
         <v>3.7896959565961348E-2</v>
       </c>
@@ -27891,33 +27891,33 @@
         <f t="shared" si="12"/>
         <v>coax zero53</v>
       </c>
-      <c r="AA51" s="469">
+      <c r="AA51" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB51" s="471">
+      <c r="AB51" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC51" s="472">
+      <c r="AC51" s="448">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="470">
+      <c r="AD51" s="446">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="469">
+      <c r="AE51" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF51" s="469">
+      <c r="AF51" s="445">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG51" s="474">
+      <c r="AG51" s="450">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AH51" s="473">
+      <c r="AH51" s="449">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -27925,7 +27925,7 @@
         <f t="shared" si="19"/>
         <v>53</v>
       </c>
-      <c r="AJ51" s="475" t="s">
+      <c r="AJ51" s="451" t="s">
         <v>536</v>
       </c>
     </row>
@@ -28011,33 +28011,33 @@
         <f t="shared" si="12"/>
         <v>coax zero400</v>
       </c>
-      <c r="AA52" s="469">
+      <c r="AA52" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB52" s="471">
+      <c r="AB52" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="472">
+      <c r="AC52" s="448">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="470">
+      <c r="AD52" s="446">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="469">
+      <c r="AE52" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF52" s="469">
+      <c r="AF52" s="445">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="474">
+      <c r="AG52" s="450">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="473">
+      <c r="AH52" s="449">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -28128,33 +28128,33 @@
         <f t="shared" si="12"/>
         <v>coax zero1000</v>
       </c>
-      <c r="AA53" s="469">
+      <c r="AA53" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB53" s="471">
+      <c r="AB53" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="472">
+      <c r="AC53" s="448">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="470">
+      <c r="AD53" s="446">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="469">
+      <c r="AE53" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF53" s="469">
+      <c r="AF53" s="445">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="474">
+      <c r="AG53" s="450">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="473">
+      <c r="AH53" s="449">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -28245,33 +28245,33 @@
         <f t="shared" si="12"/>
         <v>53_Open53</v>
       </c>
-      <c r="AA54" s="469">
+      <c r="AA54" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB54" s="471">
+      <c r="AB54" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="472">
+      <c r="AC54" s="448">
         <f t="shared" si="14"/>
         <v>3.9532634986370004E-2</v>
       </c>
-      <c r="AD54" s="470">
+      <c r="AD54" s="446">
         <f t="shared" si="15"/>
         <v>2.0844856824591131</v>
       </c>
-      <c r="AE54" s="469">
+      <c r="AE54" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF54" s="469">
+      <c r="AF54" s="445">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="474">
+      <c r="AG54" s="450">
         <f t="shared" si="17"/>
         <v>3.9538232722958234E-3</v>
       </c>
-      <c r="AH54" s="473">
+      <c r="AH54" s="449">
         <f t="shared" si="18"/>
         <v>2.0844856824591131</v>
       </c>
@@ -28362,33 +28362,33 @@
         <f t="shared" si="12"/>
         <v>400_Open400</v>
       </c>
-      <c r="AA55" s="469">
+      <c r="AA55" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB55" s="471">
+      <c r="AB55" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC55" s="472">
+      <c r="AC55" s="448">
         <f t="shared" si="14"/>
         <v>9.6657264800139725E-3</v>
       </c>
-      <c r="AD55" s="470">
+      <c r="AD55" s="446">
         <f t="shared" si="15"/>
         <v>2.064018981262898</v>
       </c>
-      <c r="AE55" s="469">
+      <c r="AE55" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF55" s="469">
+      <c r="AF55" s="445">
         <f t="shared" si="16"/>
         <v>1.00009139411567E-4</v>
       </c>
-      <c r="AG55" s="474">
+      <c r="AG55" s="450">
         <f t="shared" si="17"/>
         <v>9.6670951262618277E-4</v>
       </c>
-      <c r="AH55" s="473">
+      <c r="AH55" s="449">
         <f t="shared" si="18"/>
         <v>2.0640189812603231</v>
       </c>
@@ -28479,33 +28479,33 @@
         <f t="shared" si="12"/>
         <v>1000_Open1000</v>
       </c>
-      <c r="AA56" s="469">
+      <c r="AA56" s="445">
         <v>1000000000</v>
       </c>
-      <c r="AB56" s="471">
+      <c r="AB56" s="447">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="472">
+      <c r="AC56" s="448">
         <f t="shared" si="14"/>
         <v>5.527699267347301E-3</v>
       </c>
-      <c r="AD56" s="470">
+      <c r="AD56" s="446">
         <f t="shared" si="15"/>
         <v>2.034380127251024</v>
       </c>
-      <c r="AE56" s="469">
+      <c r="AE56" s="445">
         <v>1000000000000</v>
       </c>
-      <c r="AF56" s="469">
+      <c r="AF56" s="445">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG56" s="474">
+      <c r="AG56" s="450">
         <f t="shared" si="17"/>
         <v>5.5284819777446292E-4</v>
       </c>
-      <c r="AH56" s="473">
+      <c r="AH56" s="449">
         <f t="shared" si="18"/>
         <v>2.034380127251024</v>
       </c>
@@ -28526,8 +28526,8 @@
   </sheetPr>
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28637,11 +28637,11 @@
         <f t="shared" ref="F4:F24" si="2">VLOOKUP($A4,answers,30,FALSE)</f>
         <v>2.0256364182466209</v>
       </c>
-      <c r="G4" s="468">
+      <c r="G4" s="444">
         <f t="shared" ref="G4:G24" si="3">VLOOKUP($A4,answers,32,FALSE)</f>
         <v>-4.0008540358770807E-3</v>
       </c>
-      <c r="H4" s="468">
+      <c r="H4" s="444">
         <f t="shared" ref="H4:H24" si="4">VLOOKUP($A4,answers,33,FALSE)</f>
         <v>3.9543060504362831E-3</v>
       </c>
@@ -28700,11 +28700,11 @@
         <f t="shared" si="2"/>
         <v>2.0621871103868461</v>
       </c>
-      <c r="G5" s="468">
+      <c r="G5" s="444">
         <f t="shared" si="3"/>
         <v>1.000213508969271E-4</v>
       </c>
-      <c r="H5" s="468">
+      <c r="H5" s="444">
         <f t="shared" si="4"/>
         <v>9.6682755143370368E-4</v>
       </c>
@@ -28760,11 +28760,11 @@
         <f t="shared" si="2"/>
         <v>2.0767518297916681</v>
       </c>
-      <c r="G6" s="468">
+      <c r="G6" s="444">
         <f t="shared" si="3"/>
         <v>-2.0004270179385398E-4</v>
       </c>
-      <c r="H6" s="468">
+      <c r="H6" s="444">
         <f t="shared" si="4"/>
         <v>5.5291570284160985E-4</v>
       </c>
@@ -28822,11 +28822,11 @@
         <f t="shared" si="2"/>
         <v>2.0256356271261859</v>
       </c>
-      <c r="G7" s="468">
+      <c r="G7" s="444">
         <f t="shared" si="3"/>
         <v>1.000213508969271E-3</v>
       </c>
-      <c r="H7" s="468">
+      <c r="H7" s="444">
         <f t="shared" si="4"/>
         <v>3.9543232656245588E-3</v>
       </c>
@@ -28885,11 +28885,11 @@
         <f t="shared" si="2"/>
         <v>2.0621839600554539</v>
       </c>
-      <c r="G8" s="468">
+      <c r="G8" s="444">
         <f t="shared" si="3"/>
         <v>8.1017294226510897E-3</v>
       </c>
-      <c r="H8" s="468">
+      <c r="H8" s="444">
         <f t="shared" si="4"/>
         <v>9.6690027422434313E-4</v>
       </c>
@@ -28945,11 +28945,11 @@
         <f t="shared" si="2"/>
         <v>2.0767479097054098</v>
       </c>
-      <c r="G9" s="468">
+      <c r="G9" s="444">
         <f t="shared" si="3"/>
         <v>7.8016653699603056E-3</v>
       </c>
-      <c r="H9" s="468">
+      <c r="H9" s="444">
         <f t="shared" si="4"/>
         <v>5.5305014890525924E-4</v>
       </c>
@@ -28991,8 +28991,8 @@
       <c r="D10" s="434"/>
       <c r="E10" s="434"/>
       <c r="F10" s="435"/>
-      <c r="G10" s="468"/>
-      <c r="H10" s="468"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="444"/>
       <c r="I10" s="435"/>
     </row>
     <row r="11" spans="1:25">
@@ -29001,8 +29001,8 @@
       <c r="D11" s="434"/>
       <c r="E11" s="434"/>
       <c r="F11" s="435"/>
-      <c r="G11" s="468"/>
-      <c r="H11" s="468"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="444"/>
       <c r="I11" s="435"/>
     </row>
     <row r="12" spans="1:25" ht="38.25">
@@ -29041,11 +29041,11 @@
       <c r="C13" s="440">
         <v>53</v>
       </c>
-      <c r="D13" s="465">
+      <c r="D13" s="441">
         <f t="shared" si="0"/>
         <v>0.10507955477413659</v>
       </c>
-      <c r="E13" s="465">
+      <c r="E13" s="441">
         <f t="shared" si="1"/>
         <v>4.8598534414224507E-5</v>
       </c>
@@ -29053,11 +29053,11 @@
         <f t="shared" si="2"/>
         <v>2.0215359732532669</v>
       </c>
-      <c r="G13" s="468">
+      <c r="G13" s="444">
         <f t="shared" si="3"/>
         <v>1.00021350896927E-2</v>
       </c>
-      <c r="H13" s="468">
+      <c r="H13" s="444">
         <f t="shared" si="4"/>
         <v>3.9673001960759636E-3</v>
       </c>
@@ -29098,11 +29098,11 @@
       <c r="C14" s="440">
         <v>400</v>
       </c>
-      <c r="D14" s="465">
+      <c r="D14" s="441">
         <f t="shared" si="0"/>
         <v>0.1051265581534802</v>
       </c>
-      <c r="E14" s="465">
+      <c r="E14" s="441">
         <f t="shared" si="1"/>
         <v>3.1706362178969173E-5</v>
       </c>
@@ -29110,11 +29110,11 @@
         <f t="shared" si="2"/>
         <v>2.0473657398634031</v>
       </c>
-      <c r="G14" s="468">
+      <c r="G14" s="444">
         <f t="shared" si="3"/>
         <v>7.3015586154756718E-3</v>
       </c>
-      <c r="H14" s="468">
+      <c r="H14" s="444">
         <f t="shared" si="4"/>
         <v>1.0233745024993831E-3</v>
       </c>
@@ -29152,11 +29152,11 @@
       <c r="C15" s="440">
         <v>1000</v>
       </c>
-      <c r="D15" s="465">
+      <c r="D15" s="441">
         <f t="shared" si="0"/>
         <v>0.1051195576501737</v>
       </c>
-      <c r="E15" s="465">
+      <c r="E15" s="441">
         <f t="shared" si="1"/>
         <v>3.0890696770894959E-5</v>
       </c>
@@ -29164,11 +29164,11 @@
         <f t="shared" si="2"/>
         <v>2.0587622103459942</v>
       </c>
-      <c r="G15" s="468">
+      <c r="G15" s="444">
         <f t="shared" si="3"/>
         <v>8.0017080717541596E-3</v>
       </c>
-      <c r="H15" s="468">
+      <c r="H15" s="444">
         <f t="shared" si="4"/>
         <v>6.5538755773740499E-4</v>
       </c>
@@ -29208,11 +29208,11 @@
       <c r="C16" s="440">
         <v>53</v>
       </c>
-      <c r="D16" s="465">
+      <c r="D16" s="441">
         <f t="shared" si="0"/>
         <v>0.98805803718055185</v>
       </c>
-      <c r="E16" s="465">
+      <c r="E16" s="441">
         <f t="shared" si="1"/>
         <v>7.0921298016408881E-5</v>
       </c>
@@ -29220,11 +29220,11 @@
         <f t="shared" si="2"/>
         <v>1.993453151214019</v>
       </c>
-      <c r="G16" s="468">
+      <c r="G16" s="444">
         <f t="shared" si="3"/>
         <v>2.0004270179385421E-3</v>
       </c>
-      <c r="H16" s="468">
+      <c r="H16" s="444">
         <f t="shared" si="4"/>
         <v>5.1720030127201441E-3</v>
       </c>
@@ -29265,11 +29265,11 @@
       <c r="C17" s="440">
         <v>400</v>
       </c>
-      <c r="D17" s="465">
+      <c r="D17" s="441">
         <f t="shared" si="0"/>
         <v>0.98806503768385834</v>
       </c>
-      <c r="E17" s="465">
+      <c r="E17" s="441">
         <f t="shared" si="1"/>
         <v>6.1064921363025842E-5</v>
       </c>
@@ -29277,11 +29277,11 @@
         <f t="shared" si="2"/>
         <v>2.004648714743015</v>
       </c>
-      <c r="G17" s="468">
+      <c r="G17" s="444">
         <f t="shared" si="3"/>
         <v>5.4011529484340581E-3</v>
       </c>
-      <c r="H17" s="468">
+      <c r="H17" s="444">
         <f t="shared" si="4"/>
         <v>3.7951695919450218E-3</v>
       </c>
@@ -29319,11 +29319,11 @@
       <c r="C18" s="440">
         <v>1000</v>
       </c>
-      <c r="D18" s="465">
+      <c r="D18" s="441">
         <f t="shared" si="0"/>
         <v>0.98804703638964164</v>
       </c>
-      <c r="E18" s="465">
+      <c r="E18" s="441">
         <f t="shared" si="1"/>
         <v>6.0152379601170541E-5</v>
       </c>
@@ -29331,11 +29331,11 @@
         <f t="shared" si="2"/>
         <v>2.0051984200796289</v>
       </c>
-      <c r="G18" s="468">
+      <c r="G18" s="444">
         <f t="shared" si="3"/>
         <v>5.601195650227913E-3</v>
       </c>
-      <c r="H18" s="468">
+      <c r="H18" s="444">
         <f t="shared" si="4"/>
         <v>3.7459694206176575E-3</v>
       </c>
@@ -29375,11 +29375,11 @@
       <c r="C19" s="440">
         <v>53</v>
       </c>
-      <c r="D19" s="466">
+      <c r="D19" s="442">
         <f t="shared" si="0"/>
         <v>9.9138027603542938</v>
       </c>
-      <c r="E19" s="466">
+      <c r="E19" s="442">
         <f t="shared" si="1"/>
         <v>7.0422908281554035E-4</v>
       </c>
@@ -29432,11 +29432,11 @@
       <c r="C20" s="440">
         <v>400</v>
       </c>
-      <c r="D20" s="466">
+      <c r="D20" s="442">
         <f t="shared" si="0"/>
         <v>9.9137837589881759</v>
       </c>
-      <c r="E20" s="466">
+      <c r="E20" s="442">
         <f t="shared" si="1"/>
         <v>6.0605747636071933E-4</v>
       </c>
@@ -29486,11 +29486,11 @@
       <c r="C21" s="440">
         <v>1000</v>
       </c>
-      <c r="D21" s="466">
+      <c r="D21" s="442">
         <f t="shared" si="0"/>
         <v>9.9136507494253525</v>
       </c>
-      <c r="E21" s="466">
+      <c r="E21" s="442">
         <f t="shared" si="1"/>
         <v>6.0309687196591724E-4</v>
       </c>
@@ -29776,11 +29776,11 @@
       <c r="C28" s="440">
         <v>53</v>
       </c>
-      <c r="D28" s="465">
+      <c r="D28" s="441">
         <f t="shared" ref="D28:D36" si="6">VLOOKUP($A28,answers,28,FALSE)</f>
         <v>1.0002439132933401</v>
       </c>
-      <c r="E28" s="465">
+      <c r="E28" s="441">
         <f t="shared" ref="E28:E36" si="7">VLOOKUP($A28,answers,29,FALSE)</f>
         <v>4.9574878014252195E-5</v>
       </c>
@@ -29833,11 +29833,11 @@
       <c r="C29" s="440">
         <v>400</v>
       </c>
-      <c r="D29" s="465">
+      <c r="D29" s="441">
         <f t="shared" si="6"/>
         <v>1.0002443133221</v>
       </c>
-      <c r="E29" s="465">
+      <c r="E29" s="441">
         <f t="shared" si="7"/>
         <v>3.386056766582509E-5</v>
       </c>
@@ -29887,11 +29887,11 @@
       <c r="C30" s="440">
         <v>1000</v>
       </c>
-      <c r="D30" s="465">
+      <c r="D30" s="441">
         <f t="shared" si="6"/>
         <v>1.0002400130129261</v>
       </c>
-      <c r="E30" s="465">
+      <c r="E30" s="441">
         <f t="shared" si="7"/>
         <v>3.3178842428532477E-5</v>
       </c>
@@ -29943,11 +29943,11 @@
       <c r="C31" s="440">
         <v>53</v>
       </c>
-      <c r="D31" s="466">
+      <c r="D31" s="442">
         <f t="shared" si="6"/>
         <v>10.00208910776808</v>
       </c>
-      <c r="E31" s="466">
+      <c r="E31" s="442">
         <f t="shared" si="7"/>
         <v>4.9675870086354833E-4</v>
       </c>
@@ -30000,11 +30000,11 @@
       <c r="C32" s="440">
         <v>400</v>
       </c>
-      <c r="D32" s="466">
+      <c r="D32" s="442">
         <f t="shared" si="6"/>
         <v>10.00208510748047</v>
       </c>
-      <c r="E32" s="466">
+      <c r="E32" s="442">
         <f t="shared" si="7"/>
         <v>3.3990023044971717E-4</v>
       </c>
@@ -30054,11 +30054,11 @@
       <c r="C33" s="440">
         <v>1000</v>
       </c>
-      <c r="D33" s="466">
+      <c r="D33" s="442">
         <f t="shared" si="6"/>
         <v>10.002053105179641</v>
       </c>
-      <c r="E33" s="466">
+      <c r="E33" s="442">
         <f t="shared" si="7"/>
         <v>3.3303377227008181E-4</v>
       </c>
@@ -30588,11 +30588,11 @@
         <f>VLOOKUP($A48,answers,30,FALSE)</f>
         <v>2.1194213140360652</v>
       </c>
-      <c r="G48" s="467">
+      <c r="G48" s="443">
         <f>VLOOKUP($A48,answers,32,FALSE)</f>
         <v>100.22389913356088</v>
       </c>
-      <c r="H48" s="467">
+      <c r="H48" s="443">
         <f>VLOOKUP($A48,answers,33,FALSE)</f>
         <v>2.4068939851001745</v>
       </c>
@@ -30653,11 +30653,11 @@
         <f>VLOOKUP($A49,answers,30,FALSE)</f>
         <v>2.0232698027949092</v>
       </c>
-      <c r="G49" s="467">
+      <c r="G49" s="443">
         <f>VLOOKUP($A49,answers,32,FALSE)</f>
         <v>99887.018522882689</v>
       </c>
-      <c r="H49" s="467">
+      <c r="H49" s="443">
         <f>VLOOKUP($A49,answers,33,FALSE)</f>
         <v>28.330898860770191</v>
       </c>
@@ -42890,25 +42890,25 @@
       <c r="D3" s="380" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="443" t="s">
+      <c r="E3" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="444"/>
-      <c r="G3" s="445" t="s">
+      <c r="F3" s="473"/>
+      <c r="G3" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="444"/>
+      <c r="H3" s="473"/>
       <c r="I3" s="381" t="s">
         <v>467</v>
       </c>
-      <c r="J3" s="443" t="s">
+      <c r="J3" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="444"/>
-      <c r="L3" s="445" t="s">
+      <c r="K3" s="473"/>
+      <c r="L3" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="M3" s="444"/>
+      <c r="M3" s="473"/>
       <c r="N3" s="382" t="s">
         <v>467</v>
       </c>
@@ -42945,23 +42945,23 @@
       <c r="D4" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="441" t="s">
+      <c r="E4" s="470" t="s">
         <v>424</v>
       </c>
-      <c r="F4" s="442"/>
-      <c r="G4" s="441" t="s">
+      <c r="F4" s="471"/>
+      <c r="G4" s="470" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="442"/>
+      <c r="H4" s="471"/>
       <c r="I4" s="296"/>
-      <c r="J4" s="441" t="s">
+      <c r="J4" s="470" t="s">
         <v>426</v>
       </c>
-      <c r="K4" s="442"/>
-      <c r="L4" s="441" t="s">
+      <c r="K4" s="471"/>
+      <c r="L4" s="470" t="s">
         <v>426</v>
       </c>
-      <c r="M4" s="442"/>
+      <c r="M4" s="471"/>
       <c r="N4" s="295"/>
       <c r="Q4" s="280" t="s">
         <v>404</v>
@@ -44350,25 +44350,25 @@
       <c r="D24" s="380" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="443" t="s">
+      <c r="E24" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="444"/>
-      <c r="G24" s="445" t="s">
+      <c r="F24" s="473"/>
+      <c r="G24" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="444"/>
+      <c r="H24" s="473"/>
       <c r="I24" s="381" t="s">
         <v>467</v>
       </c>
-      <c r="J24" s="443" t="s">
+      <c r="J24" s="472" t="s">
         <v>345</v>
       </c>
-      <c r="K24" s="444"/>
-      <c r="L24" s="445" t="s">
+      <c r="K24" s="473"/>
+      <c r="L24" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="M24" s="444"/>
+      <c r="M24" s="473"/>
       <c r="N24" s="382" t="s">
         <v>467</v>
       </c>
@@ -44402,23 +44402,23 @@
       <c r="D25" s="296" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="441" t="s">
+      <c r="E25" s="470" t="s">
         <v>425</v>
       </c>
-      <c r="F25" s="442"/>
-      <c r="G25" s="441" t="s">
+      <c r="F25" s="471"/>
+      <c r="G25" s="470" t="s">
         <v>425</v>
       </c>
-      <c r="H25" s="442"/>
+      <c r="H25" s="471"/>
       <c r="I25" s="296"/>
-      <c r="J25" s="441" t="s">
+      <c r="J25" s="470" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="442"/>
-      <c r="L25" s="441" t="s">
+      <c r="K25" s="471"/>
+      <c r="L25" s="470" t="s">
         <v>346</v>
       </c>
-      <c r="M25" s="442"/>
+      <c r="M25" s="471"/>
       <c r="N25" s="295"/>
       <c r="U25" t="s">
         <v>339</v>
@@ -44494,27 +44494,27 @@
       <c r="U26" s="244">
         <v>53</v>
       </c>
-      <c r="V26" s="453">
+      <c r="V26" s="460">
         <v>1.0002289166055396</v>
       </c>
-      <c r="W26" s="454" t="e">
+      <c r="W26" s="461" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X26" s="453">
+      <c r="X26" s="460">
         <v>8.8047747347056465E-5</v>
       </c>
-      <c r="Y26" s="454"/>
+      <c r="Y26" s="461"/>
       <c r="Z26" s="248">
         <v>2.1233944956082156</v>
       </c>
-      <c r="AA26" s="457">
+      <c r="AA26" s="462">
         <v>9.99717941637564E-2</v>
       </c>
-      <c r="AB26" s="458"/>
-      <c r="AC26" s="457">
+      <c r="AB26" s="463"/>
+      <c r="AC26" s="462">
         <v>15.970442421850175</v>
       </c>
-      <c r="AD26" s="458"/>
+      <c r="AD26" s="463"/>
       <c r="AE26" s="250">
         <v>4.1959599841492805</v>
       </c>
@@ -44566,27 +44566,27 @@
       <c r="U27" s="244">
         <v>400</v>
       </c>
-      <c r="V27" s="453">
+      <c r="V27" s="460">
         <v>1.0002289166055396</v>
       </c>
-      <c r="W27" s="454" t="e">
+      <c r="W27" s="461" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X27" s="453">
+      <c r="X27" s="460">
         <v>8.7987398189674507E-5</v>
       </c>
-      <c r="Y27" s="454"/>
+      <c r="Y27" s="461"/>
       <c r="Z27" s="248">
         <v>2.1241003377589718</v>
       </c>
-      <c r="AA27" s="455">
+      <c r="AA27" s="458">
         <v>-0.29991538249126931</v>
       </c>
-      <c r="AB27" s="456"/>
-      <c r="AC27" s="455">
+      <c r="AB27" s="459"/>
+      <c r="AC27" s="458">
         <v>1.6649906453220498</v>
       </c>
-      <c r="AD27" s="456"/>
+      <c r="AD27" s="459"/>
       <c r="AE27" s="250">
         <v>2.3323262962309159</v>
       </c>
@@ -44638,27 +44638,27 @@
       <c r="U28" s="244" t="s">
         <v>342</v>
       </c>
-      <c r="V28" s="453">
+      <c r="V28" s="460">
         <v>1.0002255164086569</v>
       </c>
-      <c r="W28" s="454" t="e">
+      <c r="W28" s="461" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X28" s="453">
+      <c r="X28" s="460">
         <v>8.7986202315322773E-5</v>
       </c>
-      <c r="Y28" s="454"/>
+      <c r="Y28" s="461"/>
       <c r="Z28" s="248">
         <v>2.1241109675239245</v>
       </c>
-      <c r="AA28" s="455">
+      <c r="AA28" s="458">
         <v>-0.19994494771839047</v>
       </c>
-      <c r="AB28" s="456"/>
-      <c r="AC28" s="455">
+      <c r="AB28" s="459"/>
+      <c r="AC28" s="458">
         <v>1.1580610552363195</v>
       </c>
-      <c r="AD28" s="456"/>
+      <c r="AD28" s="459"/>
       <c r="AE28" s="250">
         <v>2.1149802921589331</v>
       </c>
@@ -44715,27 +44715,27 @@
       <c r="U29" s="244">
         <v>53</v>
       </c>
-      <c r="V29" s="459">
+      <c r="V29" s="456">
         <v>10.001693131543002</v>
       </c>
-      <c r="W29" s="460" t="e">
+      <c r="W29" s="457" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X29" s="459">
+      <c r="X29" s="456">
         <v>8.8042351805616608E-4</v>
       </c>
-      <c r="Y29" s="460"/>
+      <c r="Y29" s="457"/>
       <c r="Z29" s="248">
         <v>2.1233943830807589</v>
       </c>
-      <c r="AA29" s="455">
+      <c r="AA29" s="458">
         <v>0.81986642060019321</v>
       </c>
-      <c r="AB29" s="456"/>
-      <c r="AC29" s="455">
+      <c r="AB29" s="459"/>
+      <c r="AC29" s="458">
         <v>1.5972395319096648</v>
       </c>
-      <c r="AD29" s="456"/>
+      <c r="AD29" s="459"/>
       <c r="AE29" s="250">
         <v>4.1959773966900737</v>
       </c>
@@ -44787,27 +44787,27 @@
       <c r="U30" s="244">
         <v>400</v>
       </c>
-      <c r="V30" s="459">
+      <c r="V30" s="456">
         <v>10.001691131427187</v>
       </c>
-      <c r="W30" s="460" t="e">
+      <c r="W30" s="457" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X30" s="459">
+      <c r="X30" s="456">
         <v>8.7981998939067898E-4</v>
       </c>
-      <c r="Y30" s="460"/>
+      <c r="Y30" s="457"/>
       <c r="Z30" s="248">
         <v>2.1241003114306687</v>
       </c>
-      <c r="AA30" s="461">
+      <c r="AA30" s="454">
         <v>0.63989599883733117</v>
       </c>
-      <c r="AB30" s="462"/>
-      <c r="AC30" s="461">
+      <c r="AB30" s="455"/>
+      <c r="AC30" s="454">
         <v>0.16651668506289735</v>
       </c>
-      <c r="AD30" s="462"/>
+      <c r="AD30" s="455"/>
       <c r="AE30" s="250">
         <v>2.3323643740866609</v>
       </c>
@@ -44859,27 +44859,27 @@
       <c r="U31" s="244" t="s">
         <v>342</v>
       </c>
-      <c r="V31" s="459">
+      <c r="V31" s="456">
         <v>10.001676130558588</v>
       </c>
-      <c r="W31" s="460" t="e">
+      <c r="W31" s="457" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X31" s="459">
+      <c r="X31" s="456">
         <v>8.7980970088718266E-4</v>
       </c>
-      <c r="Y31" s="460"/>
+      <c r="Y31" s="457"/>
       <c r="Z31" s="248">
         <v>2.1241109432713281</v>
       </c>
-      <c r="AA31" s="461">
+      <c r="AA31" s="454">
         <v>0.649896323289891</v>
       </c>
-      <c r="AB31" s="462"/>
-      <c r="AC31" s="461">
+      <c r="AB31" s="455"/>
+      <c r="AC31" s="454">
         <v>0.1158137292250174</v>
       </c>
-      <c r="AD31" s="462"/>
+      <c r="AD31" s="455"/>
       <c r="AE31" s="250">
         <v>2.1149794491578868</v>
       </c>
@@ -44936,27 +44936,27 @@
       <c r="U32" s="244">
         <v>53</v>
       </c>
-      <c r="V32" s="463">
+      <c r="V32" s="452">
         <v>100.02469259071299</v>
       </c>
-      <c r="W32" s="464" t="e">
+      <c r="W32" s="453" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X32" s="463">
+      <c r="X32" s="452">
         <v>8.8055041271744416E-3</v>
       </c>
-      <c r="Y32" s="464"/>
+      <c r="Y32" s="453"/>
       <c r="Z32" s="248">
         <v>2.1233946444676275</v>
       </c>
-      <c r="AA32" s="461">
+      <c r="AA32" s="454">
         <v>0.79969359638812243</v>
       </c>
-      <c r="AB32" s="462"/>
-      <c r="AC32" s="461">
+      <c r="AB32" s="455"/>
+      <c r="AC32" s="454">
         <v>0.15969797232734037</v>
       </c>
-      <c r="AD32" s="462"/>
+      <c r="AD32" s="455"/>
       <c r="AE32" s="250">
         <v>4.1959352592676078</v>
       </c>
@@ -45008,27 +45008,27 @@
       <c r="U33" s="244">
         <v>400</v>
       </c>
-      <c r="V33" s="463">
+      <c r="V33" s="452">
         <v>100.02441259269324</v>
       </c>
-      <c r="W33" s="464" t="e">
+      <c r="W33" s="453" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X33" s="463">
+      <c r="X33" s="452">
         <v>8.7994442104342672E-3</v>
       </c>
-      <c r="Y33" s="464"/>
+      <c r="Y33" s="453"/>
       <c r="Z33" s="248">
         <v>2.1241003689686417</v>
       </c>
-      <c r="AA33" s="463">
+      <c r="AA33" s="452">
         <v>0.78170486689890439</v>
       </c>
-      <c r="AB33" s="464"/>
-      <c r="AC33" s="463">
+      <c r="AB33" s="453"/>
+      <c r="AC33" s="452">
         <v>1.6649707390396271E-2</v>
       </c>
-      <c r="AD33" s="464"/>
+      <c r="AD33" s="453"/>
       <c r="AE33" s="250">
         <v>2.3322732044148275</v>
       </c>
@@ -45080,27 +45080,27 @@
       <c r="U34" s="257" t="s">
         <v>342</v>
       </c>
-      <c r="V34" s="447">
+      <c r="V34" s="464">
         <v>100.02344259955336</v>
       </c>
-      <c r="W34" s="448" t="e">
+      <c r="W34" s="465" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X34" s="447">
+      <c r="X34" s="464">
         <v>8.7992674709835121E-3</v>
       </c>
-      <c r="Y34" s="448"/>
+      <c r="Y34" s="465"/>
       <c r="Z34" s="265">
         <v>2.1241109944432002</v>
       </c>
-      <c r="AA34" s="447">
+      <c r="AA34" s="464">
         <v>0.7757221765051614</v>
       </c>
-      <c r="AB34" s="448"/>
-      <c r="AC34" s="447">
+      <c r="AB34" s="465"/>
+      <c r="AC34" s="464">
         <v>1.1581146156231771E-2</v>
       </c>
-      <c r="AD34" s="448"/>
+      <c r="AD34" s="465"/>
       <c r="AE34" s="262">
         <v>2.1149791841142682</v>
       </c>
@@ -45126,25 +45126,25 @@
       <c r="D36" s="380" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="443" t="s">
+      <c r="E36" s="472" t="s">
         <v>347</v>
       </c>
-      <c r="F36" s="444"/>
-      <c r="G36" s="445" t="s">
+      <c r="F36" s="473"/>
+      <c r="G36" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="H36" s="444"/>
+      <c r="H36" s="473"/>
       <c r="I36" s="381" t="s">
         <v>467</v>
       </c>
-      <c r="J36" s="443" t="s">
+      <c r="J36" s="472" t="s">
         <v>345</v>
       </c>
-      <c r="K36" s="444"/>
-      <c r="L36" s="445" t="s">
+      <c r="K36" s="473"/>
+      <c r="L36" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="M36" s="444"/>
+      <c r="M36" s="473"/>
       <c r="N36" s="382" t="s">
         <v>467</v>
       </c>
@@ -45178,23 +45178,23 @@
       <c r="D37" s="296" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="446" t="s">
+      <c r="E37" s="475" t="s">
         <v>348</v>
       </c>
-      <c r="F37" s="446"/>
-      <c r="G37" s="446" t="s">
+      <c r="F37" s="475"/>
+      <c r="G37" s="475" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="446"/>
+      <c r="H37" s="475"/>
       <c r="I37" s="296"/>
-      <c r="J37" s="446" t="s">
+      <c r="J37" s="475" t="s">
         <v>346</v>
       </c>
-      <c r="K37" s="446"/>
-      <c r="L37" s="446" t="s">
+      <c r="K37" s="475"/>
+      <c r="L37" s="475" t="s">
         <v>346</v>
       </c>
-      <c r="M37" s="446"/>
+      <c r="M37" s="475"/>
       <c r="N37" s="295"/>
       <c r="U37" t="s">
         <v>339</v>
@@ -45270,27 +45270,27 @@
       <c r="U38" s="244">
         <v>53</v>
       </c>
-      <c r="V38" s="450">
-        <v>0</v>
-      </c>
-      <c r="W38" s="450" t="e">
+      <c r="V38" s="467">
+        <v>0</v>
+      </c>
+      <c r="W38" s="467" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X38" s="450">
+      <c r="X38" s="467">
         <v>4.3096259485113607E-2</v>
       </c>
-      <c r="Y38" s="450"/>
+      <c r="Y38" s="467"/>
       <c r="Z38" s="248">
         <v>2.0181704041098869</v>
       </c>
-      <c r="AA38" s="450">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="450"/>
-      <c r="AC38" s="450">
+      <c r="AA38" s="467">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="467"/>
+      <c r="AC38" s="467">
         <v>0.16402607691069304</v>
       </c>
-      <c r="AD38" s="450"/>
+      <c r="AD38" s="467"/>
       <c r="AE38" s="250">
         <v>4.3451656091733968</v>
       </c>
@@ -45342,27 +45342,27 @@
       <c r="U39" s="244">
         <v>400</v>
       </c>
-      <c r="V39" s="450">
-        <v>0</v>
-      </c>
-      <c r="W39" s="450" t="e">
+      <c r="V39" s="467">
+        <v>0</v>
+      </c>
+      <c r="W39" s="467" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X39" s="450">
+      <c r="X39" s="467">
         <v>3.9962974480765669E-2</v>
       </c>
-      <c r="Y39" s="450"/>
+      <c r="Y39" s="467"/>
       <c r="Z39" s="248">
         <v>3.8769779905197672</v>
       </c>
-      <c r="AA39" s="451">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="451"/>
-      <c r="AC39" s="451">
+      <c r="AA39" s="468">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="468"/>
+      <c r="AC39" s="468">
         <v>2.0558740666523925E-2</v>
       </c>
-      <c r="AD39" s="451"/>
+      <c r="AD39" s="468"/>
       <c r="AE39" s="250">
         <v>4.0319007627973056</v>
       </c>
@@ -45414,27 +45414,27 @@
       <c r="U40" s="257" t="s">
         <v>342</v>
       </c>
-      <c r="V40" s="452">
-        <v>0</v>
-      </c>
-      <c r="W40" s="452" t="e">
+      <c r="V40" s="469">
+        <v>0</v>
+      </c>
+      <c r="W40" s="469" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X40" s="452">
+      <c r="X40" s="469">
         <v>4.2855173127340558E-2</v>
       </c>
-      <c r="Y40" s="452"/>
+      <c r="Y40" s="469"/>
       <c r="Z40" s="265">
         <v>4.2642490983673316</v>
       </c>
-      <c r="AA40" s="449">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="449"/>
-      <c r="AC40" s="449">
+      <c r="AA40" s="466">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="466"/>
+      <c r="AC40" s="466">
         <v>6.9789029027105031E-3</v>
       </c>
-      <c r="AD40" s="449"/>
+      <c r="AD40" s="466"/>
       <c r="AE40" s="262">
         <v>3.1210602597509638</v>
       </c>
@@ -45488,25 +45488,25 @@
       <c r="D44" s="380" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="443" t="s">
+      <c r="E44" s="472" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="444"/>
-      <c r="G44" s="445" t="s">
+      <c r="F44" s="473"/>
+      <c r="G44" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="H44" s="444"/>
+      <c r="H44" s="473"/>
       <c r="I44" s="381" t="s">
         <v>467</v>
       </c>
-      <c r="J44" s="443" t="s">
+      <c r="J44" s="472" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="444"/>
-      <c r="L44" s="445" t="s">
+      <c r="K44" s="473"/>
+      <c r="L44" s="474" t="s">
         <v>466</v>
       </c>
-      <c r="M44" s="444"/>
+      <c r="M44" s="473"/>
       <c r="N44" s="382" t="s">
         <v>467</v>
       </c>
@@ -45540,23 +45540,23 @@
       <c r="D45" s="296" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="441" t="s">
+      <c r="E45" s="470" t="s">
         <v>424</v>
       </c>
-      <c r="F45" s="442"/>
-      <c r="G45" s="441" t="s">
+      <c r="F45" s="471"/>
+      <c r="G45" s="470" t="s">
         <v>424</v>
       </c>
-      <c r="H45" s="442"/>
+      <c r="H45" s="471"/>
       <c r="I45" s="296"/>
-      <c r="J45" s="441" t="s">
+      <c r="J45" s="470" t="s">
         <v>351</v>
       </c>
-      <c r="K45" s="442"/>
-      <c r="L45" s="441" t="s">
+      <c r="K45" s="471"/>
+      <c r="L45" s="470" t="s">
         <v>351</v>
       </c>
-      <c r="M45" s="442"/>
+      <c r="M45" s="471"/>
       <c r="N45" s="295"/>
       <c r="U45" t="s">
         <v>350</v>
@@ -45757,38 +45757,38 @@
     <row r="48" spans="1:31" ht="13.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
     <mergeCell ref="V34:W34"/>
     <mergeCell ref="X34:Y34"/>
     <mergeCell ref="AA40:AB40"/>
@@ -45805,38 +45805,38 @@
     <mergeCell ref="X40:Y40"/>
     <mergeCell ref="V38:W38"/>
     <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="Q5:R47">
